--- a/REGULAR/CHO/CANALOG, EUGENE V..xlsx
+++ b/REGULAR/CHO/CANALOG, EUGENE V..xlsx
@@ -1598,10 +1598,10 @@
   </sheetPr>
   <dimension ref="A2:K424"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A356" activePane="bottomLeft"/>
-      <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K377" sqref="K377"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A360" activePane="bottomLeft"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1764,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>232.23099999999999</v>
+        <v>235.98099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1774,7 +1774,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.5</v>
+        <v>307.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5706,7 +5706,7 @@
       <c r="H188" s="38"/>
       <c r="I188" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.5</v>
+        <v>307.25</v>
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
@@ -9768,13 +9768,15 @@
       <c r="B377" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="38"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="38"/>
       <c r="I377" s="9"/>
@@ -9788,13 +9790,15 @@
         <v>45200</v>
       </c>
       <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D378" s="38"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H378" s="38"/>
       <c r="I378" s="9"/>
@@ -9806,13 +9810,15 @@
         <v>45231</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="38"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="38"/>
       <c r="I379" s="9"/>
@@ -9820,7 +9826,9 @@
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="39"/>
+      <c r="A380" s="39">
+        <v>45261</v>
+      </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="38"/>
